--- a/output/VALUE/rebalance/rebalance_20240329.xlsx
+++ b/output/VALUE/rebalance/rebalance_20240329.xlsx
@@ -6264,13 +6264,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02238782092512794</v>
+        <v>0.02238746400785538</v>
       </c>
       <c r="C2" t="n">
         <v>0.02787661574043526</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00548879481530732</v>
+        <v>0.005489151732579883</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6285,13 +6285,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02408661112741101</v>
+        <v>0.02408678108824543</v>
       </c>
       <c r="C3" t="n">
         <v>0.02493109792681058</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0008444867993995693</v>
+        <v>0.0008443168385651525</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6306,13 +6306,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02129504658259741</v>
+        <v>0.02129502394213732</v>
       </c>
       <c r="C4" t="n">
         <v>0.02465475569672738</v>
       </c>
       <c r="D4" t="n">
-        <v>0.003359709114129968</v>
+        <v>0.003359731754590058</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6327,13 +6327,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02589931846642876</v>
+        <v>0.02589996266001638</v>
       </c>
       <c r="C5" t="n">
         <v>0.02443506378123337</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.001464254685195399</v>
+        <v>-0.001464898878783011</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6348,13 +6348,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02490871164461584</v>
+        <v>0.0249081912616131</v>
       </c>
       <c r="C6" t="n">
         <v>0.02394661795621915</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0009620936883966875</v>
+        <v>-0.00096157330539395</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6369,13 +6369,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02649379634995323</v>
+        <v>0.02649328235184322</v>
       </c>
       <c r="C7" t="n">
         <v>0.02254788145477588</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.003945914895177347</v>
+        <v>-0.003945400897067342</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6390,13 +6390,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0208584581767932</v>
+        <v>0.02085825623729278</v>
       </c>
       <c r="C8" t="n">
         <v>0.02246568879603001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.001607230619236812</v>
+        <v>0.001607432558737232</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6411,13 +6411,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01948205100075131</v>
+        <v>0.01948193634229476</v>
       </c>
       <c r="C9" t="n">
         <v>0.02205339900647779</v>
       </c>
       <c r="D9" t="n">
-        <v>0.002571348005726483</v>
+        <v>0.002571462664183028</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6432,13 +6432,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02334757932037685</v>
+        <v>0.02334889199591992</v>
       </c>
       <c r="C10" t="n">
         <v>0.02196552269834091</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.00138205662203594</v>
+        <v>-0.001383369297579005</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6453,13 +6453,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01764103035454619</v>
+        <v>0.01764114327430481</v>
       </c>
       <c r="C11" t="n">
         <v>0.02180075565391294</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00415972529936675</v>
+        <v>0.00415961237960813</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6474,13 +6474,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01918007800569122</v>
+        <v>0.01918011455294827</v>
       </c>
       <c r="C12" t="n">
         <v>0.02179626881241917</v>
       </c>
       <c r="D12" t="n">
-        <v>0.002616190806727949</v>
+        <v>0.002616154259470909</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6495,13 +6495,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02066568058952117</v>
+        <v>0.02066606661170349</v>
       </c>
       <c r="C13" t="n">
         <v>0.02173710782598344</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001071427236462266</v>
+        <v>0.00107104121427995</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0144878141329333</v>
+        <v>0.01448776197887746</v>
       </c>
       <c r="C14" t="n">
         <v>0.02172205883304612</v>
       </c>
       <c r="D14" t="n">
-        <v>0.007234244700112821</v>
+        <v>0.007234296854168659</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6558,13 +6558,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01783409425354323</v>
+        <v>0.01783391064738067</v>
       </c>
       <c r="C16" t="n">
         <v>0.02143336559599086</v>
       </c>
       <c r="D16" t="n">
-        <v>0.003599271342447627</v>
+        <v>0.003599454948610189</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6579,13 +6579,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02329595538346659</v>
+        <v>0.02329646839852117</v>
       </c>
       <c r="C17" t="n">
         <v>0.02123237361622511</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.002063581767241477</v>
+        <v>-0.002064094782296057</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6600,13 +6600,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02130919356334091</v>
+        <v>0.02130889666944513</v>
       </c>
       <c r="C18" t="n">
         <v>0.02067363021163299</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0006355633517079219</v>
+        <v>-0.0006352664578121447</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -6621,13 +6621,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01913224942964683</v>
+        <v>0.01913231825377209</v>
       </c>
       <c r="C19" t="n">
         <v>0.02066345625423078</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001531206824583946</v>
+        <v>0.00153113800045869</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6642,13 +6642,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02418335491329805</v>
+        <v>0.02418323554407551</v>
       </c>
       <c r="C20" t="n">
         <v>0.02043182753918242</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.003751527374115628</v>
+        <v>-0.003751408004893091</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6663,13 +6663,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01765054758963153</v>
+        <v>0.01765048966734627</v>
       </c>
       <c r="C21" t="n">
         <v>0.02041619452295976</v>
       </c>
       <c r="D21" t="n">
-        <v>0.002765646933328238</v>
+        <v>0.002765704855613491</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -6684,13 +6684,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01871109518967206</v>
+        <v>0.01871094518224016</v>
       </c>
       <c r="C22" t="n">
         <v>0.02034025894889523</v>
       </c>
       <c r="D22" t="n">
-        <v>0.001629163759223166</v>
+        <v>0.001629313766655063</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6705,13 +6705,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01441531297768965</v>
+        <v>0.01441556646978118</v>
       </c>
       <c r="C23" t="n">
         <v>0.02008842380638048</v>
       </c>
       <c r="D23" t="n">
-        <v>0.005673110828690833</v>
+        <v>0.005672857336599307</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6726,13 +6726,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02644600939107946</v>
+        <v>0.0264457301492</v>
       </c>
       <c r="C24" t="n">
         <v>0.01986969153639274</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.006576317854686719</v>
+        <v>-0.006576038612807252</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6747,13 +6747,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01899218074377984</v>
+        <v>0.01899233696203689</v>
       </c>
       <c r="C25" t="n">
         <v>0.01985289942359246</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0008607186798126262</v>
+        <v>0.0008605624615555738</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6768,13 +6768,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01598996267168232</v>
+        <v>0.01598974385297972</v>
       </c>
       <c r="C26" t="n">
         <v>0.01966292125101614</v>
       </c>
       <c r="D26" t="n">
-        <v>0.003672958579333818</v>
+        <v>0.003673177398036419</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6789,13 +6789,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01932419341524882</v>
+        <v>0.01932429485336851</v>
       </c>
       <c r="C27" t="n">
         <v>0.01955528935940555</v>
       </c>
       <c r="D27" t="n">
-        <v>0.000231095944156736</v>
+        <v>0.0002309945060370439</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6810,13 +6810,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01597231236774575</v>
+        <v>0.01597426503661769</v>
       </c>
       <c r="C28" t="n">
         <v>0.01954469213691103</v>
       </c>
       <c r="D28" t="n">
-        <v>0.003572379769165284</v>
+        <v>0.003570427100293344</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6831,13 +6831,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.02028003389735384</v>
+        <v>0.0202804756318937</v>
       </c>
       <c r="C29" t="n">
         <v>0.01937054068723244</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.0009094932101213968</v>
+        <v>-0.0009099349446612601</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6894,13 +6894,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01747188347300823</v>
+        <v>0.01747187100175211</v>
       </c>
       <c r="C32" t="n">
         <v>0.01838754462010422</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0009156611470959898</v>
+        <v>0.0009156736183521079</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6915,13 +6915,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.02261659036260935</v>
+        <v>0.02261657085773857</v>
       </c>
       <c r="C33" t="n">
         <v>0.01834799657843995</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.004268593784169404</v>
+        <v>-0.004268574279298616</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6936,13 +6936,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.02102386317490441</v>
+        <v>0.02102358966577655</v>
       </c>
       <c r="C34" t="n">
         <v>0.01828903135084104</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.00273483182406337</v>
+        <v>-0.00273455831493551</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -6978,13 +6978,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01480579137975254</v>
+        <v>0.01480577443358243</v>
       </c>
       <c r="C36" t="n">
         <v>0.0182380630290037</v>
       </c>
       <c r="D36" t="n">
-        <v>0.003432271649251157</v>
+        <v>0.003432288595421273</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -6999,13 +6999,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.02004298899391772</v>
+        <v>0.02004274736659992</v>
       </c>
       <c r="C37" t="n">
         <v>0.0182097972529043</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.001833191741013419</v>
+        <v>-0.001832950113695622</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -7020,13 +7020,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01910521841399558</v>
+        <v>0.01910676366060739</v>
       </c>
       <c r="C38" t="n">
         <v>0.01814387817269007</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.0009613402413055153</v>
+        <v>-0.0009628854879173178</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -7062,13 +7062,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.02121061219237054</v>
+        <v>0.02120923443095916</v>
       </c>
       <c r="C40" t="n">
         <v>0.01789151605118857</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.003319096141181976</v>
+        <v>-0.003317718379770594</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -7125,13 +7125,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.01486806198476468</v>
+        <v>0.0148677662885682</v>
       </c>
       <c r="C43" t="n">
         <v>0.01761738345055504</v>
       </c>
       <c r="D43" t="n">
-        <v>0.002749321465790355</v>
+        <v>0.00274961716198684</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -7146,13 +7146,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.02166373609992847</v>
+        <v>0.0216629769086227</v>
       </c>
       <c r="C44" t="n">
         <v>0.01758832398484774</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.004075412115080727</v>
+        <v>-0.004074652923774957</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -7167,13 +7167,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.01699035281562778</v>
+        <v>0.01699007551908611</v>
       </c>
       <c r="C45" t="n">
         <v>0.01756470932051016</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0005743565048823805</v>
+        <v>0.0005746338014240501</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -7188,13 +7188,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.02112227998109505</v>
+        <v>0.02112174683022773</v>
       </c>
       <c r="C46" t="n">
         <v>0.01743173026996841</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.003690549711126638</v>
+        <v>-0.003690016560259326</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -7209,13 +7209,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.01361601628025957</v>
+        <v>0.01361598040752538</v>
       </c>
       <c r="C47" t="n">
         <v>0.01743136664595656</v>
       </c>
       <c r="D47" t="n">
-        <v>0.003815350365696989</v>
+        <v>0.003815386238431187</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -7272,13 +7272,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.0172181152459967</v>
+        <v>0.0172179528486449</v>
       </c>
       <c r="C50" t="n">
         <v>0.01722851074420051</v>
       </c>
       <c r="D50" t="n">
-        <v>1.039549820380792e-05</v>
+        <v>1.055789555560321e-05</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -7314,13 +7314,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.02640709616533501</v>
+        <v>0.02640538430570481</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.02640709616533501</v>
+        <v>-0.02640538430570481</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7335,13 +7335,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.02066606292535747</v>
+        <v>0.02066671220658832</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.02066606292535747</v>
+        <v>-0.02066671220658832</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7356,13 +7356,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.0129212240743384</v>
+        <v>0.01292127048463726</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.0129212240743384</v>
+        <v>-0.01292127048463726</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7377,13 +7377,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01862954849526851</v>
+        <v>0.01862938308665717</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01862954849526851</v>
+        <v>-0.01862938308665717</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7398,13 +7398,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01795562298815253</v>
+        <v>0.01795578960485578</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01795562298815253</v>
+        <v>-0.01795578960485578</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7419,13 +7419,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.02676096375709398</v>
+        <v>0.02676150675026125</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.02676096375709398</v>
+        <v>-0.02676150675026125</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7440,13 +7440,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01772397182815468</v>
+        <v>0.01772412669797168</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01772397182815468</v>
+        <v>-0.01772412669797168</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7461,13 +7461,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01924926870379876</v>
+        <v>0.01924919431281728</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01924926870379876</v>
+        <v>-0.01924919431281728</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7482,13 +7482,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01619283857229841</v>
+        <v>0.01619286287699662</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01619283857229841</v>
+        <v>-0.01619286287699662</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7503,13 +7503,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.02746739962804537</v>
+        <v>0.02746716583010769</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.02746739962804537</v>
+        <v>-0.02746716583010769</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>

--- a/output/VALUE/rebalance/rebalance_20240329.xlsx
+++ b/output/VALUE/rebalance/rebalance_20240329.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>24.65%</t>
+          <t>24.69%</t>
         </is>
       </c>
     </row>
@@ -6264,13 +6264,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02238746400785538</v>
+        <v>0.02243158530891568</v>
       </c>
       <c r="C2" t="n">
         <v>0.02787661574043526</v>
       </c>
       <c r="D2" t="n">
-        <v>0.005489151732579883</v>
+        <v>0.005445030431519584</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6285,13 +6285,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02408678108824543</v>
+        <v>0.02413369635723537</v>
       </c>
       <c r="C3" t="n">
         <v>0.02493109792681058</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0008443168385651525</v>
+        <v>0.0007974015695752096</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6306,13 +6306,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02129502394213732</v>
+        <v>0.02133667477832649</v>
       </c>
       <c r="C4" t="n">
         <v>0.02465475569672738</v>
       </c>
       <c r="D4" t="n">
-        <v>0.003359731754590058</v>
+        <v>0.003318080918400888</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6327,13 +6327,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02589996266001638</v>
+        <v>0.02594994723092517</v>
       </c>
       <c r="C5" t="n">
         <v>0.02443506378123337</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.001464898878783011</v>
+        <v>-0.001514883449691799</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6348,13 +6348,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0249081912616131</v>
+        <v>0.02495740394118721</v>
       </c>
       <c r="C6" t="n">
         <v>0.02394661795621915</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.00096157330539395</v>
+        <v>-0.001010785984968066</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6369,13 +6369,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02649328235184322</v>
+        <v>0.02654558721764558</v>
       </c>
       <c r="C7" t="n">
         <v>0.02254788145477588</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.003945400897067342</v>
+        <v>-0.003997705762869706</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6390,13 +6390,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02085825623729278</v>
+        <v>0.0208992329164127</v>
       </c>
       <c r="C8" t="n">
         <v>0.02246568879603001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.001607432558737232</v>
+        <v>0.001566455879617311</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6411,13 +6411,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01948193634229476</v>
+        <v>0.01952013509834262</v>
       </c>
       <c r="C9" t="n">
         <v>0.02205339900647779</v>
       </c>
       <c r="D9" t="n">
-        <v>0.002571462664183028</v>
+        <v>0.002533263908135172</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6432,13 +6432,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02334889199591992</v>
+        <v>0.02339321986866019</v>
       </c>
       <c r="C10" t="n">
         <v>0.02196552269834091</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.001383369297579005</v>
+        <v>-0.001427697170319278</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6453,13 +6453,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01764114327430481</v>
+        <v>0.01767551556976342</v>
       </c>
       <c r="C11" t="n">
         <v>0.02180075565391294</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00415961237960813</v>
+        <v>0.004125240084149519</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6474,13 +6474,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01918011455294827</v>
+        <v>0.01921757179741517</v>
       </c>
       <c r="C12" t="n">
         <v>0.02179626881241917</v>
       </c>
       <c r="D12" t="n">
-        <v>0.002616154259470909</v>
+        <v>0.002578697015003999</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6495,13 +6495,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02066606661170349</v>
+        <v>0.02070607848173139</v>
       </c>
       <c r="C13" t="n">
         <v>0.02173710782598344</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00107104121427995</v>
+        <v>0.001031029344252043</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01448776197887746</v>
+        <v>0.01451613534651097</v>
       </c>
       <c r="C14" t="n">
         <v>0.02172205883304612</v>
       </c>
       <c r="D14" t="n">
-        <v>0.007234296854168659</v>
+        <v>0.00720592348653515</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6558,13 +6558,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01783391064738067</v>
+        <v>0.01786895687586048</v>
       </c>
       <c r="C16" t="n">
         <v>0.02143336559599086</v>
       </c>
       <c r="D16" t="n">
-        <v>0.003599454948610189</v>
+        <v>0.00356440872013038</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6579,13 +6579,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02329646839852117</v>
+        <v>0.02334149501572978</v>
       </c>
       <c r="C17" t="n">
         <v>0.02123237361622511</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.002064094782296057</v>
+        <v>-0.002109121399504664</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6600,13 +6600,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02130889666944513</v>
+        <v>0.02135084941401223</v>
       </c>
       <c r="C18" t="n">
         <v>0.02067363021163299</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0006352664578121447</v>
+        <v>-0.000677219202379245</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -6621,13 +6621,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01913231825377209</v>
+        <v>0.01916964972463588</v>
       </c>
       <c r="C19" t="n">
         <v>0.02066345625423078</v>
       </c>
       <c r="D19" t="n">
-        <v>0.00153113800045869</v>
+        <v>0.001493806529594903</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6642,13 +6642,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02418323554407551</v>
+        <v>0.02423062926077656</v>
       </c>
       <c r="C20" t="n">
         <v>0.02043182753918242</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.003751408004893091</v>
+        <v>-0.003798801721594133</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6663,13 +6663,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01765048966734627</v>
+        <v>0.01768505140942533</v>
       </c>
       <c r="C21" t="n">
         <v>0.02041619452295976</v>
       </c>
       <c r="D21" t="n">
-        <v>0.002765704855613491</v>
+        <v>0.002731143113534434</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -6684,13 +6684,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01871094518224016</v>
+        <v>0.0187476721997218</v>
       </c>
       <c r="C22" t="n">
         <v>0.02034025894889523</v>
       </c>
       <c r="D22" t="n">
-        <v>0.001629313766655063</v>
+        <v>0.001592586749173428</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6705,13 +6705,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01441556646978118</v>
+        <v>0.01420518936885789</v>
       </c>
       <c r="C23" t="n">
         <v>0.02008842380638048</v>
       </c>
       <c r="D23" t="n">
-        <v>0.005672857336599307</v>
+        <v>0.005883234437522592</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6726,13 +6726,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0264457301492</v>
+        <v>0.02649770684339143</v>
       </c>
       <c r="C24" t="n">
         <v>0.01986969153639274</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.006576038612807252</v>
+        <v>-0.006628015306998688</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6747,13 +6747,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01899233696203689</v>
+        <v>0.01902930722830091</v>
       </c>
       <c r="C25" t="n">
         <v>0.01985289942359246</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0008605624615555738</v>
+        <v>0.0008235921952915552</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6768,13 +6768,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01598974385297972</v>
+        <v>0.01602122033027516</v>
       </c>
       <c r="C26" t="n">
         <v>0.01966292125101614</v>
       </c>
       <c r="D26" t="n">
-        <v>0.003673177398036419</v>
+        <v>0.003641700920740978</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6789,13 +6789,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01932429485336851</v>
+        <v>0.01936196892809761</v>
       </c>
       <c r="C27" t="n">
         <v>0.01955528935940555</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0002309945060370439</v>
+        <v>0.000193320431307948</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6810,13 +6810,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01597426503661769</v>
+        <v>0.01502229684859248</v>
       </c>
       <c r="C28" t="n">
         <v>0.01954469213691103</v>
       </c>
       <c r="D28" t="n">
-        <v>0.003570427100293344</v>
+        <v>0.004522395288318553</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6831,13 +6831,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0202804756318937</v>
+        <v>0.0203196779158441</v>
       </c>
       <c r="C29" t="n">
         <v>0.01937054068723244</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.0009099349446612601</v>
+        <v>-0.0009491372286116531</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6894,13 +6894,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01747187100175211</v>
+        <v>0.01750603803482846</v>
       </c>
       <c r="C32" t="n">
         <v>0.01838754462010422</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0009156736183521079</v>
+        <v>0.0008815065852757625</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6915,13 +6915,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.02261657085773857</v>
+        <v>0.02266080195175462</v>
       </c>
       <c r="C33" t="n">
         <v>0.01834799657843995</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.004268574279298616</v>
+        <v>-0.00431280537331467</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6936,13 +6936,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.02102358966577655</v>
+        <v>0.02106496125317494</v>
       </c>
       <c r="C34" t="n">
         <v>0.01828903135084104</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.00273455831493551</v>
+        <v>-0.002775929902333902</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -6978,13 +6978,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01480577443358243</v>
+        <v>0.0148347341847889</v>
       </c>
       <c r="C36" t="n">
         <v>0.0182380630290037</v>
       </c>
       <c r="D36" t="n">
-        <v>0.003432288595421273</v>
+        <v>0.003403328844214803</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -6999,13 +6999,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.02004274736659992</v>
+        <v>0.02008216962992141</v>
       </c>
       <c r="C37" t="n">
         <v>0.0182097972529043</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.001832950113695622</v>
+        <v>-0.001872372377017113</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -7020,13 +7020,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01910676366060739</v>
+        <v>0.01866583530035206</v>
       </c>
       <c r="C38" t="n">
         <v>0.01814387817269007</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.0009628854879173178</v>
+        <v>-0.0005219571276619886</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -7062,13 +7062,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.02120923443095916</v>
+        <v>0.0212520753332213</v>
       </c>
       <c r="C40" t="n">
         <v>0.01789151605118857</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.003317718379770594</v>
+        <v>-0.003360559282032733</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -7125,13 +7125,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.0148677662885682</v>
+        <v>0.0148971265182473</v>
       </c>
       <c r="C43" t="n">
         <v>0.01761738345055504</v>
       </c>
       <c r="D43" t="n">
-        <v>0.00274961716198684</v>
+        <v>0.002720256932307735</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -7146,13 +7146,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.0216629769086227</v>
+        <v>0.02170608502098356</v>
       </c>
       <c r="C44" t="n">
         <v>0.01758832398484774</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.004074652923774957</v>
+        <v>-0.004117761036135814</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -7167,13 +7167,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.01699007551908611</v>
+        <v>0.01702356606687716</v>
       </c>
       <c r="C45" t="n">
         <v>0.01756470932051016</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0005746338014240501</v>
+        <v>0.0005411432536329974</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -7188,13 +7188,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.02112174683022773</v>
+        <v>0.02116357044748999</v>
       </c>
       <c r="C46" t="n">
         <v>0.01743173026996841</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.003690016560259326</v>
+        <v>-0.003731840177521584</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -7209,13 +7209,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.01361598040752538</v>
+        <v>0.01364263327724835</v>
       </c>
       <c r="C47" t="n">
         <v>0.01743136664595656</v>
       </c>
       <c r="D47" t="n">
-        <v>0.003815386238431187</v>
+        <v>0.003788733368708211</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -7272,17 +7272,17 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.0172179528486449</v>
+        <v>0.0172517737340759</v>
       </c>
       <c r="C50" t="n">
         <v>0.01722851074420051</v>
       </c>
       <c r="D50" t="n">
-        <v>1.055789555560321e-05</v>
+        <v>-2.326298987539305e-05</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -7314,13 +7314,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.02640538430570481</v>
+        <v>0.02645871754890621</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.02640538430570481</v>
+        <v>-0.02645871754890621</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7335,13 +7335,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.02066671220658832</v>
+        <v>0.02070646156496924</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.02066671220658832</v>
+        <v>-0.02070646156496924</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7356,13 +7356,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01292127048463726</v>
+        <v>0.01294648287068523</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01292127048463726</v>
+        <v>-0.01294648287068523</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7377,13 +7377,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01862938308665717</v>
+        <v>0.01866596609539431</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01862938308665717</v>
+        <v>-0.01866596609539431</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7398,13 +7398,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01795578960485578</v>
+        <v>0.01799072317848501</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01795578960485578</v>
+        <v>-0.01799072317848501</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7419,13 +7419,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.02676150675026125</v>
+        <v>0.02681327689164656</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.02676150675026125</v>
+        <v>-0.02681327689164656</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7440,13 +7440,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01772412669797168</v>
+        <v>0.01775861917985205</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01772412669797168</v>
+        <v>-0.01775861917985205</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7461,13 +7461,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01924919431281728</v>
+        <v>0.01928689775157451</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01924919431281728</v>
+        <v>-0.01928689775157451</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7482,13 +7482,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01619286287699662</v>
+        <v>0.01596593516430367</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01619286287699662</v>
+        <v>-0.01596593516430367</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7503,13 +7503,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.02746716583010769</v>
+        <v>0.02752109372462553</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.02746716583010769</v>
+        <v>-0.02752109372462553</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
